--- a/biology/Botanique/Micromelum_minutum/Micromelum_minutum.xlsx
+++ b/biology/Botanique/Micromelum_minutum/Micromelum_minutum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Micromelum minutum est une espèce de plantes de la famille des Rutaceae. On rencontre cet arbre en Asie tropicale, en Australie et dans les îles du Pacifique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Feuillage
@@ -545,15 +559,52 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite pour la première fois par le botaniste britannique Robert Wight (1796-1872) et son confrère écossais George Arnott Walker Arnott (1799-1868)[1].
-Liste des variétés
-Selon Catalogue of Life                                   (7 novembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois par le botaniste britannique Robert Wight (1796-1872) et son confrère écossais George Arnott Walker Arnott (1799-1868).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Micromelum_minutum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Micromelum_minutum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 novembre 2014) :
 variété Micromelum minutum var. ceylanicum
 variété Micromelum minutum var. curranii
 variété Micromelum minutum var. tomentosum
-Selon Tropicos                                           (7 novembre 2014)[1] :
+Selon Tropicos                                           (7 novembre 2014) :
 variété Micromelum minutum var. ceylanicum B.C. Stone</t>
         </is>
       </c>
